--- a/NNPEFWEB/wwwroot/UPLOAD/ShipsUsers.xlsx
+++ b/NNPEFWEB/wwwroot/UPLOAD/ShipsUsers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="5112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15340" windowHeight="5110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>SVC_NO</t>
   </si>
@@ -32,33 +32,12 @@
     <t>RANK</t>
   </si>
   <si>
-    <t>SURNAME</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>ilekhaize.kenneth@gmail.com</t>
-  </si>
-  <si>
-    <t>INITIALS</t>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
     <t>SHIP</t>
   </si>
   <si>
     <t>CPO</t>
   </si>
   <si>
-    <t>ICT</t>
-  </si>
-  <si>
     <t>NN/3107</t>
   </si>
   <si>
@@ -80,52 +59,29 @@
     <t>ODUM</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
     <t>ADEBANJO</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>LtCdr</t>
   </si>
   <si>
     <t>Lt</t>
   </si>
   <si>
-    <t>APPOINTMENT</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>HOD</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,11 +104,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -160,12 +115,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,23 +395,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,150 +416,84 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8099887766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8099887766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E4" s="2">
+        <v>8099887766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
         <v>8099887766</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8099887766</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8099887766</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8099887766</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NNPEFWEB/wwwroot/UPLOAD/ShipsUsers.xlsx
+++ b/NNPEFWEB/wwwroot/UPLOAD/ShipsUsers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>SVC_NO</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>INITIALS</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -395,20 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,13 +434,16 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -436,13 +454,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>8099887766</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -453,13 +474,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>8099887766</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -470,13 +494,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>8099887766</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -487,9 +514,12 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>8099887766</v>
       </c>
     </row>
